--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -74,13 +71,16 @@
   </si>
   <si>
     <t>dAsazYt</t>
+  </si>
+  <si>
+    <t>xpath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,7 +226,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,7 +260,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,25 +435,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.69140625" customWidth="1"/>
-    <col min="3" max="3" width="22.3046875" customWidth="1"/>
-    <col min="4" max="4" width="15.3828125" customWidth="1"/>
-    <col min="5" max="5" width="21.3046875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -470,16 +468,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -490,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -499,50 +497,50 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
@@ -553,7 +551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -562,37 +560,37 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
     </row>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Keyword</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -58,22 +52,31 @@
     <t>Login In Application</t>
   </si>
   <si>
+    <t>mngr73146</t>
+  </si>
+  <si>
+    <t>dAsazYt</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>accountID</t>
+  </si>
+  <si>
+    <t>SETVARIABLE</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
     <t>resetButton</t>
   </si>
   <si>
-    <t>mgr123</t>
-  </si>
-  <si>
-    <t>mgr!23</t>
-  </si>
-  <si>
-    <t>mngr73146</t>
-  </si>
-  <si>
-    <t>dAsazYt</t>
-  </si>
-  <si>
-    <t>xpath</t>
+    <t>Using Variable</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,152 +453,189 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Keyword</t>
   </si>
@@ -73,23 +73,48 @@
     <t>Object Name</t>
   </si>
   <si>
-    <t>resetButton</t>
-  </si>
-  <si>
     <t>Using Variable</t>
+  </si>
+  <si>
+    <t>WAIT</t>
+  </si>
+  <si>
+    <t>ACCEPTJAVASCRIPT</t>
+  </si>
+  <si>
+    <t>createuserlink</t>
+  </si>
+  <si>
+    <t>email_input</t>
+  </si>
+  <si>
+    <t>sang@automation.com</t>
+  </si>
+  <si>
+    <t>newuserid</t>
+  </si>
+  <si>
+    <t>newpassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -130,15 +155,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,10 +473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,7 +506,7 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -550,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -560,82 +593,267 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -8,16 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="3" r:id="rId2"/>
+    <sheet name="DATA" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="keyword">DATA!$A$1:$A$9</definedName>
+    <definedName name="value">DATA!$B$1:$B$2</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
-  <si>
-    <t>Keyword</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>url</t>
   </si>
@@ -43,9 +46,6 @@
     <t>loginButton</t>
   </si>
   <si>
-    <t>TestCase</t>
-  </si>
-  <si>
     <t>Reset Login In Application</t>
   </si>
   <si>
@@ -88,20 +88,35 @@
     <t>email_input</t>
   </si>
   <si>
-    <t>sang@automation.com</t>
-  </si>
-  <si>
     <t>newuserid</t>
   </si>
   <si>
     <t>newpassword</t>
+  </si>
+  <si>
+    <t>RANDOMEMAIL</t>
+  </si>
+  <si>
+    <t>VERIFYTRUE</t>
+  </si>
+  <si>
+    <t>VERIFYFALSE</t>
+  </si>
+  <si>
+    <t>VERIFYEQUAL</t>
+  </si>
+  <si>
+    <t>TestCase Name</t>
+  </si>
+  <si>
+    <t>Actions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +130,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,13 +184,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -475,13 +501,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -489,371 +516,459 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>keyword</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>value</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>